--- a/Excel/sample2.xlsx
+++ b/Excel/sample2.xlsx
@@ -438,7 +438,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="A2:D4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
